--- a/MainTop/18.06.2025 Таня Озон/tata_ozon_vse_sorted.xlsx
+++ b/MainTop/18.06.2025 Таня Озон/tata_ozon_vse_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\18.06.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2D6EF9-634B-41C5-8D88-48937DCC74E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E06EFC-A7A8-4964-828C-2B804A750A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1156,13 +1156,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="23" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/MainTop/18.06.2025 Таня Озон/tata_ozon_vse_sorted.xlsx
+++ b/MainTop/18.06.2025 Таня Озон/tata_ozon_vse_sorted.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\18.06.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E06EFC-A7A8-4964-828C-2B804A750A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF5E15A-E64C-4B56-880C-94C74E8F2EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1154,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X105"/>
+  <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8936,6 +8936,88 @@
         <v>27</v>
       </c>
     </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f>SUM(B2:B105)</f>
+        <v>54</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ref="C106:U106" si="0">SUM(C2:C105)</f>
+        <v>129</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MainTop/18.06.2025 Таня Озон/tata_ozon_vse_sorted.xlsx
+++ b/MainTop/18.06.2025 Таня Озон/tata_ozon_vse_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\18.06.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF5E15A-E64C-4B56-880C-94C74E8F2EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9906376-8DB3-49F4-89D8-077978519D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X106"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z101" sqref="Z101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8936,88 +8936,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <f>SUM(B2:B105)</f>
-        <v>54</v>
-      </c>
-      <c r="C106">
-        <f t="shared" ref="C106:U106" si="0">SUM(C2:C105)</f>
-        <v>129</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="E106">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="I106">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="P106">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="Q106">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="R106">
-        <f t="shared" si="0"/>
-        <v>173</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="T106">
-        <f t="shared" si="0"/>
-        <v>2062</v>
-      </c>
-      <c r="U106">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
